--- a/biology/Botanique/Malpighiales/Malpighiales.xlsx
+++ b/biology/Botanique/Malpighiales/Malpighiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Malpighiales forment un ordre de plantes dicotylédones. Réintroduit par la classification phylogénétique APG (1998)[1] cet ordre appartient au groupe des Fabidées (anglais eurosids I), lui-même rattaché aux Rosidées (anglais rosids) puis au noyau des Dicotylédones vraies. Cet ordre est très grand et comprend de nombreuses familles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Malpighiales forment un ordre de plantes dicotylédones. Réintroduit par la classification phylogénétique APG (1998) cet ordre appartient au groupe des Fabidées (anglais eurosids I), lui-même rattaché aux Rosidées (anglais rosids) puis au noyau des Dicotylédones vraies. Cet ordre est très grand et comprend de nombreuses familles.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique APG IV (2016), la famille des Peraceae Klotzsch (1859) est séparée de la famille des Euphorbiaceae.
-En classification phylogénétique APG III (2009)[2] cet ordre comprend ces familles :
+En classification phylogénétique APG III (2009) cet ordre comprend ces familles :
 ordre des Malpighiales Juss. ex Bercht. &amp; J.Presl (1820)
 famille des Achariaceae Harms (1897)
 famille des Balanopaceae Benth. &amp; Hook.f. (1880)
@@ -551,7 +565,7 @@
 famille des Salicaceae Mirb. (1815)
 famille des Trigoniaceae A.Juss. (1849)
 famille des Violaceae Batsch (1802)
-En classification phylogénétique APG (1998)[1] cet ordre comprend les familles :
+En classification phylogénétique APG (1998) cet ordre comprend les familles :
 ordre des Malpighiales
 famille des Achariaceae
 famille des Balanopaceae
@@ -584,7 +598,7 @@
 famille des Trigoniaceae
 famille des Turneraceae
 famille des Violaceae
-En classification phylogénétique APG II (2003)[3] la circionscription est modifiée :
+En classification phylogénétique APG II (2003) la circionscription est modifiée :
 ordre des Malpighiales
 famille des Achariaceae
 famille des Balanopaceae
@@ -666,12 +680,89 @@
 famille des Turneraceae
 famille des Violaceae
 et aussi le genre Bhesa.
-Phylogénie
-2009
-La phylogénie des Malpighiales est, à son niveau le plus profond, une polytomie non résolue de 16 clades. Il a été estimé que la résolution complète de la phylogénie nécessitera au moins 25 000 paires de bases de données de séquence d'ADN par taxon[4]. Une situation similaire existe avec les Lamiales et elle a été analysée en détail[5]. L'arbre phylogénétique présenté ci-dessous provient de Wurdack et Davis (2009). Le support statistique pour chaque branche est un pourcentage de bootstrap de 100 % et une probabilité a posteriori de 100 %, sauf indication contraire, avec un pourcentage de bootstrap suivi d'une probabilité a posteriori.
-2012
-En 2012, Xi et al. réussi à obtenir un arbre phylogénétique plus résolu que les études précédentes grâce à l'utilisation de données provenant d'un grand nombre de gènes. Ils ont inclus des analyses de 82 gènes de plastes de 58 espèces (ils ont ignoré la problématique Rafflesiaceae), en utilisant des partitions identifiées a posteriori en appliquant un modèle de mélange bayésien. Xi et al. identifié 12 clades supplémentaires et trois principaux clades basaux[6],[7].
-Les modifications apportées à la classification Angiosperm Phylogeny Group (APG) de 2016 (APG IV) ont été l'inclusion des Irvingiaceae, Peraceae, Euphorbiaceae et Ixonanthaceae, ainsi que le transfert du clade COM des fabids (rosid I) aux malvids (rosid II)[8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Malpighiales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malpighiales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie des Malpighiales est, à son niveau le plus profond, une polytomie non résolue de 16 clades. Il a été estimé que la résolution complète de la phylogénie nécessitera au moins 25 000 paires de bases de données de séquence d'ADN par taxon. Une situation similaire existe avec les Lamiales et elle a été analysée en détail. L'arbre phylogénétique présenté ci-dessous provient de Wurdack et Davis (2009). Le support statistique pour chaque branche est un pourcentage de bootstrap de 100 % et une probabilité a posteriori de 100 %, sauf indication contraire, avec un pourcentage de bootstrap suivi d'une probabilité a posteriori.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Malpighiales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malpighiales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Xi et al. réussi à obtenir un arbre phylogénétique plus résolu que les études précédentes grâce à l'utilisation de données provenant d'un grand nombre de gènes. Ils ont inclus des analyses de 82 gènes de plastes de 58 espèces (ils ont ignoré la problématique Rafflesiaceae), en utilisant des partitions identifiées a posteriori en appliquant un modèle de mélange bayésien. Xi et al. identifié 12 clades supplémentaires et trois principaux clades basaux,.
+Les modifications apportées à la classification Angiosperm Phylogeny Group (APG) de 2016 (APG IV) ont été l'inclusion des Irvingiaceae, Peraceae, Euphorbiaceae et Ixonanthaceae, ainsi que le transfert du clade COM des fabids (rosid I) aux malvids (rosid II).
 </t>
         </is>
       </c>
